--- a/NewsReport.xlsx
+++ b/NewsReport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,370 +589,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.independent.co.uk/news/world/europe/mcdonalds-russia-fast-food-trademark-b2037987.html</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Russian fast-food chain backed by parliament to replace McDonald’s reveals near-identical branding</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>83.00232887268066</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A Russian restaurant chain billed as a replacement for McDonald’s has reportedly revealed a logo that is extremely similar to the fast-food giant’s famous gold arches.
-A trademark registration for the Uncle Vanya franchise was filed last week with Russian authorities, according to media reports.
-McDonald’s last week said it would temporarily close all 847 of its restaurants in Russia as global brands face consumer pressure to oppose Vladimir Putin’s invasion of Ukraine.
-Uncle Vanya’s new logo is apparently modelled on the cyrillic “B”, which refers to the “V” in Uncle Vanya, and social media users were quick to point out its similarity to McDonald’s branding.
-McDonald’s has been approached for comment.
-The mayor of Moscow said domestic chains could replace the 250 McDonald’s restaurants in the Russian capital within a year, Russia’s Interfax news agency said.
-He reportedly suggested the replacements would be preferable to the US giant as 99 per cent of their ingredients would be Russian.
-The city council was said to have awarded 500m rubles (£3.7m) to domestic fast food chains.
-Last week, Russia's State Duma speaker Vyacheslav Volodin told parliament that Uncle Vanya should replace McDonald’s.
-McDonald’s stopped operating in Russia last week more than 30 years after its arrival served as a symbol of warming relations between east and west at the end of the Cold War.
-Moscow residents wait outside Russia’s first McDonald’s in 1991 (AP)
-“Our values mean we cannot ignore the needless human suffering unfolding in Ukraine,” McDonald’s President and CEO Chris Kempczinski said in an open letter to employees.
-The Chicago-based burger giant said it would continue paying its 62,000 employees in Russia “who have poured their heart and soul into our McDonald’s brand”.
-Mr Kempczinski said it was impossible to know when the company will be able to reopen its stores.
-The Independent has a proud history of campaigning for the rights of the most vulnerable, and we first ran our Refugees Welcome campaign during the war in Syria in 2015. Now, as we renew our campaign and launch this petition in the wake of the unfolding Ukrainian crisis, we are calling on the government to go further and faster to ensure help is delivered. To find out more about our Refugees Welcome campaign, click here.
-To sign the petition click here. If you would like to donate then please click here for our GoFundMe page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://apnews.com/article/sports-canada-texas-education-europe-b03ae1b3a1193087d5444429182fd2da</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NTSB: Child was driving truck that struck van killing 9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>99.519944190979</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A memorial erected in honor of the University of the Southwest golf teams car wreck is seen Thursday, March 17, 2022 at the Rockwind Community Links in Hobbs, N.M. Late Tuesday, the University of the Southwest men's and women's golf teams were involved in a fatal car crash half a mile north of State Highway 115 on Farm-to-Market Road 1788 in Andrews County while on the way back from tournament play in Midland. Nine people were killed in the wreck including six students, one coach, and two in a pickup that collided head-on with the university's van. (Eli Hartman/Odessa American via AP)
-A memorial erected in honor of the University of the Southwest golf teams car wreck is seen Thursday, March 17, 2022 at the Rockwind Community Links in Hobbs, N.M. Late Tuesday, the University of the Southwest men's and women's golf teams were involved in a fatal car crash half a mile north of State Highway 115 on Farm-to-Market Road 1788 in Andrews County while on the way back from tournament play in Midland. Nine people were killed in the wreck including six students, one coach, and two in a pickup that collided head-on with the university's van. (Eli Hartman/Odessa American via AP)
-HOBBS, N.M. (AP) — A 13-year-old was driving the pickup truck that struck a van in West Texas in a fiery collision that killed nine people, including six members of a college golf team and their coach, a National Transportation Safety Board official said Thursday.
-The child and a man traveling in the truck also died.
-The truck’s left front tire, which was a spare tire, also blew out before impact, said NTSB Vice Chairman Bruce Landsberg.
-Although it was unclear how fast the two vehicles were traveling, “this was clearly a high-speed collision,” Landsberg said. He added investigators hoped to retrieve enough information from the vehicle’s recorders to better understand what happened.
-One must be 14 in Texas to start taking classroom courses for a learner’s license and 15 to receive that provisional license to drive with an instructor or licensed adult in the vehicle. Department of Public Safety Sgt. Victor Taylor said a 13-year-old driving would be breaking the law.
-ADVERTISEMENT
-The pickup truck crossed into the opposite lane on a darkened, two-lane highway before colliding head-on with a van, killing the boy, a man traveling with him, six New Mexico college students and a golf coach .
-It’s not uncommon for people in rural parts of the U.S. to learn to drive when they’re young. But the news that a 13-year-old was behind the wheel in the Texas crash put a renewed focus on the practice .
-The University of the Southwest students, including one from Portugal and one from Mexico, and the coach were returning from a golf tournament when the vehicles collided Tuesday night. Two Canadian students were hospitalized in critical condition.
-The NTSB sent an investigative team to the crash site in Texas’ Andrews County, about 30 miles (50 kilometers) east of the New Mexico state line. While the area is rural, its roads can often be busy with traffic related to agriculture and oil and gas development.
-University of the Southwest spokeswoman Maria Duarte declined to comment on the NTSB’s announcement about the young driver, citing the ongoing investigation.
-The golf teams were traveling in a 2017 Ford Transit van that was towing a box trailer when it collided with the truck , and both vehicles burst into flames, according to NTSB spokesman Eric Weiss.
-He said the vehicles crashed on a two-lane asphalt highway where the speed limit is 75 mph (120 kph), though investigators have not yet determined how fast either vehicle was traveling.
-ADVERTISEMENT
-The Texas Department of Public Safety identified the deceased as: Golf coach Tyler James, 26, of Hobbs, New Mexico; and players Mauricio Sanchez, 19, of Mexico; Travis Garcia, 19, of Pleasanton, Texas; Jackson Zinn, 22, of Westminster, Colorado; Karisa Raines, 21, of Fort Stockton, Texas; Laci Stone, 18, of Nocona, Texas; and Tiago Sousa, 18, of Portugal.
-Also killed were Henrich Siemens, 38, of Seminole County, Texas, and the unidentified 13-year-old boy who were in the 2007 Dodge 2500 pickup.
-Critically injured aboard the van were Canadian students Dayton Price, 19, of Mississauga, Ontario, and Hayden Underhill, 20, of Amherstview, Ontario. Both were taken by helicopter to the University Medical Center in Lubbock, about 110 miles (180 kilometers) to the northeast.
-“They are both stable and recovering and every day making more and more progress,” University of the Southwest Provost Ryan Tipton said Thursday of the two injured students.
-“One of the students is eating chicken soup,” said Tipton, calling their recovery “a game of inches.”
-Tipton said University President Quint Thurman visited the students’ parents at the hospital, illustrating the close community at the college with only about 350 on-campus students.
-Underhill’s brother Drew said their parents, Ken and Wendy, flew to Texas.
-“Hockey was a big part of life for a while, but his true passion is golf,” Drew Underhill said.
-On Thursday evening, about 150 people turned out to remember Zinn at Texas Roadhouse, a Hobbs restaurant where he worked and met his girlfriend of five months.
-“We met here exactly at this table,” said Maddy Russell, 20, of Hobbs. “He was my heart.”
-The mourners released around 100 blue and orange balloons into the cold, whipping wind of eastern New Mexico, and they soon disappeared into the horizon.
-The Mexican Federation of Golf posted an online note of condolence to the loved ones of Sanchez.
-Sousa was from Portugal’s southern coast, where he graduated from high school last summer before heading to college in the U.S., said Renata Afonso, head of the Escola Secundária de Loulé.
-“Any school would be delighted to have had him as a student,” she said.
-Team member Jasmin Collum had been scheduled to play but at the last minute decided instead to visit her parents in Houston, her mother said.
-“We knew all those people on board,” Tonya Collum said. “Basically the whole team is gone or in the hospital.”
-The University of the Southwest is a private, Christian college in Hobbs, New Mexico, near the state line with Texas.
-A memorial was set up Wednesday at the course near campus where the team practices. There were flowers, golf balls and a handmade sign with a cross and the initials USW.
-“It’s the very least we could to for the players, and of course Coach James,” said Rockwind Community Links Manager Ben Kirkes.
-The university said on Twitter that counseling and religious services would be available on campus.
-The teams had been taking part in a golf tournament at Midland College, about 315 miles (505 kilometers) west of Dallas. Midland College canceled Wednesday’s play because of the crash.
-___
-This story has been updated to correct the last name of Henrich Siemens and to remove reference to him as the driver of the pickup truck.
-___
-Bleed reported from Little Rock, Arkansas, and Snow reported from Phoenix. Associated Press writers Jake Bleiberg and Jamie Stengle in Dallas, Rob Gillies in Toronto and Barry Hatton in Lisbon contributed to this report.
-___
-Attanasio is a corps member for the Associated Press/Report for America Statehouse News Initiative. Report for America is a nonprofit national service program that places journalists in local newsrooms to report on under-covered issues. Follow Attanasio on Twitter .</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://eurasianet.org/uzbekistan-calls-for-an-end-to-aggression-in-ukraine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Uzbekistan calls for an end to aggression in Ukraine</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>99.40233826637268</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Uzbekistan has broken ranks among its Central Asian peers, who have pointedly refrained from adopting explicit positions on Russia’s war, by stating that it recognizes Ukraine’s territorial integrity and that it will not recognize the independence of the breakaway self-styled republics of Donetsk and Luhansk.
-Speaking in the Senate on March 17, Foreign Minister Abdulaziz Komilov urged both sides in the conflict to reach a diplomatic solution.
-“The situation around Ukraine is a cause of deep concern for Uzbekistan,” Komilov said. “We support pursuing a peaceful solution for this situation and to settle this conflict by political and diplomatic means. For that to happen, it is necessary first to bring an end to the military activities and aggression.”
-The statement stops short of categorically assigning blame to either side for initiating the conflict, but the fact that it has been made at all is notable in light of the depth of diplomatic and economic ties between Uzbekistan and Russia.
-All other countries in Central Asia, whose economies are like Uzbekistan’s strongly dependent on that of Russia, have adopted fiercely noncommittal positions.
-Kazakhstan has also refrained from lending its backing to the declaration of sovereignty made by the Donetsk and Luhansk people’s republics, but it has at the same time avoided stating categorically that it rejects the claims. The recognition and subsequent need to defend those self-declared republics from a purported planned assault by Kyiv’s forces was what Russia had cited as the ostensible justification for waging war against Ukraine.
-On February 22, Kazakh Foreign Minister Mukhtar Tleuberdi told journalists that “the issue of recognition for the Donetsk and Luhansk people’s republics by Kazakhstan is not on the agenda” – a formulation seemingly geared toward avoiding the ire of both Russia and the West alike.
-The Kremlin sought early in the war to put Tashkent on the spot by trying to convey the impression it was giving its tacit approval for the invasion of Ukraine.
-When Russian President Vladimir Putin’s office issued a statement about his February 25 telephone conversation with Uzbek President Shavkat Mirziyoyev, it suggested that Mirziyoyev had “expressed understanding regarding the actions taken by the Russian side.”
-This seeming endorsement prompted Mirziyoyev’s spokesman to provide a clarification.
-“I would like to emphasize that Uzbekistan takes a balanced, neutral position on this matter,” Sherzod Asadov said in a Facebook post in English. “All disputes and disagreements that arise must be addressed solely on the basis of the international law norms.”
-As Temur Umarov, a fellow at the Carnegie Moscow Center, noted in a comment on his Telegram feed, countries in Central Asia are showing extreme caution over the Ukraine crisis.
-“Each in its own way depends on Russia, and therefore, they do not want to anger her. But at the same time, there is not a single Central Asian country that can support Russia's actions toward Ukraine, as that would indirectly legitimize Moscow's attempts to interfere in their own internal affairs,” Umarov wrote.
-If Uzbekistan has some additional scope to take a position at variance with Kazakhstan, it is because it is not a member of either the Moscow-led Eurasian Economic Union trading bloc or the Collective Security Treaty Organization defense grouping, Umarov wrote.
-“Uzbekistan … feels more free in its relations with Moscow, and so it allows itself more transparent formulations,” he wrote.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.cbsnews.com/news/arnold-schwarzenegger-russia-ukraine-nazi-father/</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Arnold Schwarzenegger speaks to Russians in emotional plea against war in Ukraine</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fake </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>20.44061124324799</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Arnold Schwarzenegger posted a heartfelt nine-minute video message on Twitter in an attempt to punch through propaganda and speak directly to the Russian people about the war in Ukraine. The legendary bodybuilder, action star and former California governor said he wanted his message to reach "my dear Russian friends."
-"I'm speaking to you today because there are things that are being kept from you," he said. "Terrible things that you should know about."
-He prefaced his condemnation of the Russian government's actions by speaking of his love and admiration for the Russian people — starting with his childhood hero, the weightlifting champion Yuri Petrovich Vlasov.
-He said his father urged him to find a different hero. "We argued back and forth," Schwarzenegger said. "He didn't like Russians because of his experience in World War II." He spoke of his father's time fighting for the Nazis in Leningrad during the war — which he also raised in a powerful video he posted after the January 6 insurrection at the U.S. Capitol.
-Schwarzenegger's comments, subtitled on screen in both Russian and English, then turned to focus on the grim reality of the situation in Ukraine, where deadly bombardments have forced 3 million Ukrainians to flee their homes.
-I love the Russian people. That is why I have to tell you the truth. Please watch and share. pic.twitter.com/6gyVRhgpFV — Arnold (@Schwarzenegger) March 17, 2022
-He asked Russian President Vladimir Putin, "Why would you sacrifice these young men for your own ambition? … To President Putin, I say: You started this war. You are leading this war. You can stop this war."
-Schwarzenegger said the Russian government's claim that it's attempting to "de-Nazify" Ukraine was completely untrue, pointing out that Ukraine's president, Volodymir Zelenskyy, is Jewish and lost relatives in the Holocaust.
-"The Russian government has lied not only to its citizens but to its soldiers," he said, before returning to the story of his father.
-"When my father arrived in Leningrad, he was all pumped up on the lies of his government. When he left Leningrad, he was broken — physically and mentally. He lived the rest of his life in pain — pain from a broken back, pain from the shrapnel that always reminded him of those terrible years and pain from the guilt that he felt."
-"To the Russian soldiers listening to this broadcast: You already know much of the truth that I'm speaking. You've seen it in your own eyes. I don't want you to be broken like my father," he said.
-He ended the video by speaking to Russians who have protested their country's invasion of Ukraine.
-"We know that you've suffered the consequences of your courage. You have been arrested, you've been jailed and you've been beaten. You are my new heroes. You have the strength of Yuri Petrovich Vlasov. You have the true heart of Russia."</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.theguardian.com/uk-news/2022/mar/15/black-girl-racism-police-strip-search-london-school-hackney</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Racism cited as factor in police strip search of girl, 15, at London school</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>98.61221313476562</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A black child was subjected by police to a strip search at her London school that involved exposure of intimate body parts, according to an official investigation which found racism was likely to have been an “influencing factor” in the officers’ actions.
-No appropriate adult was present during the 15-year-old girl’s ordeal, described by a senior local authority figure as “humiliating, traumatising and utterly shocking” and which took place without parental consent and in the knowledge that she was menstruating.
-Details of her treatment in her secondary school’s medical room have emerged in a child safeguarding review initiated by Hackney council after the incident in December 2020.
-The child was made to bend over, spread her legs and use her hands to spread her buttocks while coughing, and she is now in therapy and self-harming, according to family members’ statements to the inquiry.
-The damning report said: “Having considered the context of the incident, the views of those engaged in the review and the impact felt by Child Q and her family, racism (whether deliberate or not) was likely to have been an influencing factor in the decision to undertake a strip search.”
-The report emphasised the importance of the question of whether the child was treated differently because she was black, adding this line of inquiry had been starkly reflected in several events that took place around the same time.
-“Significantly, some six months prior, George Floyd was tragically killed in the USA and there were repercussions around the globe, including in the UK,” it said.
-Police were called by teachers who told the review that they believed she was smelling strongly of cannabis and suspected she was carrying drugs, but none were found during the subsequent search.
-The school was visited by four officers including two women who carried out the search of the girl – referred to in the report as ‘Child Q’ – while teachers remained outside the room and her mother was not contacted.
-“Someone walked into the school, where I was supposed to feel safe, took me away from the people who were supposed to protect me and stripped me naked, while on my period,” the girl said in a statement, adding that she did not know if she would “ever feel normal again”.
-The Metropolitan police on Tuesday said they apologised for what a senior officer described as the child’s “truly regrettable” treatment, which has been the subject of a separate Independent Office for Police Conduct (IOPC) investigation, whose report is nearing completion.
-But senior members of the local council furiously criticised the force in the wake of the review, which concluded that Child Q should never have been strip searched, and found there was an absence of a “safeguarding-first” approach from many of the professionals involved.
-One of eight findings includes school staff deferring to the authority of the police on their arrival at school. It added: “They should have been more challenging to the police, seeking clarity about the actions they intended to take.”
-Anntoinette Bramble, Hackney’s deputy mayor and cabinet member for children’s services, and the mayor of Hackney, Philip Glanville, said: “All aspects of this review have appalled us: the decision by police officers to strip search a child in her school; the lack of challenge by the school toward police; the absence of requirements of police to seek parental consent in the strip search of a child.
-“But most stark: that racism is likely to have been an ‘influencing factor’ in the decision by police to undertake the strip search.”
-They added that the child’s ordeal had been exacerbated by the fact the strip search had been carried out at school “a place where the child had an expectation of safety, security and care. Instead, she was let down by those who were meant to protect her.”
-The child’s mother said in statements provided for the review that her daughter had been searched by the police and was asked to go back into an exam without any teacher asking her about how she felt, knowing what she had just gone through.
-“Their position in the school is being part of the safeguarding team, but they were not acting as if they were a part of that team. This makes me sick – the fact that my child had to take her sanitary towel off and put the same dirty towel back on because they would not allow her to use the restroom to clean herself.”
-The child’s maternal aunt said her niece had turned from a “a happy go lucky girl” to a “timid recluse” who hardly spoke to her. She was now so traumatised that she was self-harming and required therapy.
-In a letter, the aunt added: “The family do not believe that the officers would have treated a Caucasian girl child who was on her monthly periods in the same way.”
-Those who carried out the review were in agreement, concluding that racism was likely to have been an “influencing factor” in the strip search, and that the child had been subjected to “adultification” bias – where black and global majority children are held to adult standards, but their white peers are less likely to be.
-In a statement released by the Metropolitan police, the force identified the girl as a 15-year-old and said that the search had been conducted after her bag and outer clothing had already been searched by staff at the school prior to police arrival.
-The Mayor of London, Sadiq Khan, described the case as “shocking and deeply disturbing” and said that he would be closely following the outcome of the IOPC investigation.
-“I am extremely concerned by the findings of this report and no child should ever have to face a situation like this,” he said.
-The search took place in the same part of London where the Met apologised in January and paid compensation to an academic for “sexist, derogatory and unacceptable language” used by officers about her when she was strip searched.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.northjersey.com/story/news/columnists/mike-kelly/2022/03/13/sept-11-fbi-links-saudi-arabia-spy-attacks/9442454002/</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>New FBI documents link Saudi spy in California to 9/11 attacks</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fake </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>10.1406067609787</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Soon after the 9/11 attacks two decades ago, the FBI quietly launched an investigation into a seemingly obscure Saudi Arabian government bureaucrat in Southern California.
-The man claimed to be nothing more than a Saudi aviation official who innocently happened to befriend two Islamic jihadists in the months before they carried out the 9/11 attacks.
-That story now appears to be false. The alleged aviation official was really a Saudi spy who reported directly to a Saudi prince who happened to be the kingdom’s influential ambassador in Washington and a close friend of President George W. Bush and other top U.S. government officials.
-The FBI concluded five years ago that there was a "50/50 chance" that this Saudi spy knew ahead of time that the two Islamists he befriended were about to join the plot to hijack commercial jetliners and crash them into buildings in what turned out to be America's deadliest terrorist attack. But the FBI refused to go public with its findings — until now.
-The story of the spy and the ambassador-prince emerged in recent days as the centerpiece of a startling series of revelations in a newly declassified FBI report that could shed light on a perplexing mystery that has long shadowed the 9/11 investigation:
-Did Saudi government officials play a role in America’s deadliest terror attack?
-If so, what sort of role?
-And who else was involved?
-While heavily redacted, the report offers the most direct link yet between the Saudi government, its secretive royal family and the team of 19 operatives of Osama bin Laden’s al-Qaeda terror network who hijacked four jetliners on the morning of Sept. 11, 2001. The terrorists crashed two jetliners into New York’s World Trade Center, another into the Pentagon in Northern Virginia and a fourth, which was reportedly headed to the U.S. Capitol, into a farm field in Pennsylvania.
-Nearly 3,000 people died in that mass murder-suicide scheme. But for two decades, a major question has shadowed the inquiry into how a band of 19 Islamic extremists pulled it off: Did the Saudi government offer assistance to the terrorists?
-Mike Kelly:The FBI begins to open its files on Saudi links to 9/11. What do they show?
-Saudi spy connections detailed
-A 510-page secret FBI report, written in 2017 and declassified last week without any fanfare by the FBI or Justice Department, concludes that the California-based Saudi spy, Omar al Bayoumi, not only helped several 9/11 hijackers to find housing in San Diego, but that there was a “50/50 chance” he “had advanced knowledge” of their deadly plans.
-For years, top FBI leaders and Justice Department officials kept this potentially explosive information secret, refusing to tell Congressional investigators, the 9/11 Commission and the more than 10,000 American citizens who had signed on to a massive federal lawsuit that seeks to link Saudi officials to 9/11.
-The findings in the FBI report are coming to light just as the Biden administration is reportedly reaching out to several oil producing nations — including Saudi Arabia — to increase production and help curtail rising gas prices across the United States. Whether the FBI’s report will impact negotiations with Saudi oil officials remains to be seen. But for decades, critics have pointed to Saudi Arabia’s oil reserves and their importance to the economies of many western nations as a reason the U.S. has not pushed harder for more information on alleged Saudi links to 9/11 and other Islamist-based terrorist attacks.
-Before the 9/11 attacks, the FBI report says, Bayoumi was on the payroll of Saudi Prince Bandar bin Sultan Al Saud, the kingdom’s influential U.S. ambassador who was so close to the Bush administration and visited the White House so often that he was nicknamed “Bandar Bush.”
-The FBI concluded that Bayoumi regularly passed intelligence findings to Bandar. But the report does not say whether Bayoumi told Bandar that he had met with two members of Osama bin Laden’s al-Qaeda terror network who had flown to California in early 2000 to begin preparations for attacks on Sept. 11, 2001.
-Related:9/11 hijackers were 'hiding in plain sight' before the 2001 attacks. How did they do it?
-Bayoumi helped the two find an apartment in San Diego. He also introduced them to several members of a Saudi-financed mosque in Los Angeles.
-The two al-Qaeda operatives later made their way to northern New Jersey, where they met with other 9/11 conspirators, rented cars, opened bank accounts and postal boxes, exercised at a local gym and hung out at Macy's and other stores at the Willowbrook Mall in Wayne.
-The FBI report does not say whether Bayoumi knew they left California — or, if he did, whether he offered them advice on how to travel to New Jersey. Nor does the report say whether Bayoumi ever told Prince Bandar whether he knew about the 9/11 attacks before they took place.
-Compiled after years of outspoken concerns and criticism from 9/11 victims about a possible Saudi connection to the plot, the report and its findings were kept secret by FBI and Justice Department officials until late last week. The report was released as part of an ongoing executive order by President Joe Biden last September to declassify the FBI’s trove of 9/11 investigative files.
-In the days leading up to the 20th anniversary of the 9/11 attacks last September, Biden had been under intense pressure by 9/11 victims and their relatives, along with several key members of Congress, to release the FBI’s secret investigative files. Some victims and relatives even threatened to stage protests or boycotts at 9/11 anniversary ceremonies if Biden showed up without ordering the FBI to open its files.
-Since Biden’s executive order, the FBI has declassified a steady trickle of files. But few of the documents offered much insight into the long-rumored Saudi link to the 9/11 plot — until last week.
-Clear evidence of a conspiracy between bin Laden’s jihadists and Saudi officials has long been scarce. These latest revelations could change that, advocates say. And, if nothing else, this latest report offers one of the most startling glimpses yet into the shadow world of spies and terrorists -- and Saudi royalty.
-“It’s exactly what we’ve been saying,” said James Kreindler, one of the lead attorneys in a lawsuit by more than 10,000 9/11 victims and relatives against the Saudi government. “Saudi government officials at a high level were integral to the 9/11 attacks.”
-The Saudi Arabian embassy in Washington — and their American attorneys in the lawsuit — did not respond to requests for comment. The White House did not respond either. The FBI’s media office in Washington said in an email: “We have no comment on the documents.”
-Prince Bander, 73 who is now retired after moving from his U.S. ambassadorship to the head of the Saudi intelligence service and the Saudi National Security Council, and Bayoumi, 63, both live in Saudi Arabia. They could not be reached for comment.
-Victims' families, former agent angered
-The revelations about Bandar and Bayoumi drew an angry response, not just from 9/11 victims and their relatives, but from a former FBI agent who tried to sound an alarm during the summer of 2001 after he found evidence that al-Qaeda operatives had secretly entered the United States.
-“This latest report just shows what we have known all along, but disgustingly has taken 20 years to finally be disclosed,” said Mark Rossini, an FBI counter-terror expert assigned in 2001 to the CIA’s Alec Station team, which was tracking several al-Qaeda operatives but deliberately did not alert the FBI when a terrorist team entered the U.S.
-Rossini, who was reached at his home in Spain where he has lived since leaving the FBI in 2008 after pleading guilty to illegally accessing files on a case unrelated to 9/11, claims he was ordered by CIA officials and threatened with federal charges if he bucked orders and told the FBI about the presence of al-Qaeda terrorists on U.S. soil.
-Neither the CIA nor the FBI has ever explained why they did not cooperate on what now seems to be such a basic piece of an important counter-terror investigation — and, therefore, may have prevented the 9/11 attacks.
-Brett Eagleson of Middletown, Connecticut, who lost his father in the collapse of the Trade Center's twin towers in lower Manhattan, said the new evidence is a major step forward in the long legal and public relations battle to not only draw attention to Saudi Arabia’s possible links to 9/11 but hold the kingdom’s royal family and other officials accountable.
-Column continues below gallery.
-“For 20 years we’ve seen a helluva lot of smoke,” said Eagleson, who has emerged as one of the most outspoken critics of Saudi Arabia among the 9/11 victims and relatives in their lawsuit against the kingdom. “I think we’ve just found the fire.”
-Names of sources and other identifying details in the FBI report are blacked out. Many of the 510 pages consist mostly of lines drawn through entire sentences and even paragraphs. But enough information remains to outline the seemingly strange connection between the spy (Bayoumi), the prince (Bandar) and two rag-tag Saudi-born members of al-Qaeda’s terrorist network, Khalid al Mihdhar and Nawaf al Hazmi.
-Mihdhar and Hazmi were well known al-Qaeda operatives long before they joined the team of 19 hijackers who carried out the 9/11 plot. In 2000, the CIA tracked Mihdhar and Hazmi from the Middle East to an apartment in Kuala Lumpur, Malaysia where they met with other members of bin Laden’s network.
-What the CIA did not know at the time was that the initial plans were hatched in that meeting to hijack commercial jetliners in America and crash them into buildings — the essential ingredients of the massive attack on Sept. 11, 2001 that caught America by surprise and transformed U.S. foreign policy.
-After leaving the Kuala Lumpur apartment gathering, Mihdhar and Hazmi flew to Bangkok, Thailand. With U.S. travel visas in hand, both caught a flight to Los Angeles — not knowing that CIA agents were tailing them.
-After Mihdhar and Hazmi landed in Los Angeles, they were soon met by Bayoumi, who helped them find an apartment and introduced them to a handful of Saudis also living in Southern California.
-The CIA had no legal authority to continue tracking the two terrorists inside the United States. By law, the CIA is strictly confined to overseas spy operations. Critics have long claimed the CIA should have called in the FBI and its domestic counter-terror squads. But the CIA remained silent and has never explained why it did not immediately summon the FBI.
-During the summer of 2001, Mihdhar and Hazmi moved to northern New Jersey, settling into the Congress Inn motel on Route 46 in South Hackensack and other area motels and apartments. From there, they met with other 9/11 hijackers, including the ringleader, Mohamed Atta, who lived for various periods at motels in Wayne, New Jersey.
-A few weeks before the 9/11 attacks, the CIA finally told the FBI that al-Qaeda operatives were on the loose inside America. By then, it was too late to stop them, however. Mihdhar and Hazmi had disappeared with other members of the 9/11 plot.
-After the 9/11 attacks, FBI investigators focused attention on Bayoumi and other Saudis in Southern California. But none was ever arrested.
-Bayoumi left the United States and returned to Saudi Arabia not long after the 9/11 attacks. While in America, he was described in the FBI report as a “co-optee of the Saudi General Intelligence Presidency” who was paid an undisclosed “monthly stipend” by Prince Bandar. The FBI report, however, does not say whether Bayoumi ever spoke directly with Prince Bandar or communicated by email.
-But the report also offers this glimpse on Bayoumi’s role as a spy and his connection to Prince Bandar: “The information AlBayoumi (sic) obtained on persons of interest in the Saudi community in Los Angeles and San Diego and other issues, which met certain GIP intelligence requirements, would be forwarded to Bandar. Bander would then inform GIP of items of interest to the GIP for further investigation/vetting or follow up.”
-The 9/11 Commission investigated Bayoumi’s links to Mihdhar and Hazmi before releasing its best-selling report 2004. But neither Saudi officials nor the FBI and the CIA ever spelled out to Commission investigators the extent of Bayoumi’s work as a spy or his connection to Prince Bandar.
-Reached this week, the Commission’s chairman, Tom Kean, the former New Jersey governor, said his investigators never learned that Bayoumi was a spy.
-“If that’s true I’d be upset by it,” Kean said in a telephone interview, adding, “The FBI said it wasn’t withholding anything and we believed them.”
-But Kean also cautioned against jumping to conclusions about the extent of Saudi involvement in the 9/11 plot.
-“I think you have to take a look at the evidence,” he said.
-The FBI report also does not explain when it formally concluded that Bayoumi was, in fact, a spy. In the years after the 9/11 attacks, a number of media reports speculated that Bayoumi might have worked for the Saudi intelligence service. But there was no formal declaration of Bayoumi’s role until now.
-“This is scary,” said Jerry S. Goldman, a New York-based attorney who represents 500 victims in the federal lawsuit against Saudi Arabia. “According to the allegation in the FBI report, the Saudi ambassador is dealing with a guy who dealt with terrorists?”
-Tim Frolich, who grew up in Little Falls, New Jersey, and escaped from the 80th floor of the South Tower of the World Trade Center after it was struck by a hijacked jetliner, said the latest revelations confirmed long suspicions about Saudi links to terrorism. But Frolich, who worked as an accountant for Fuji Bank in the South Tower, also harshly criticized the FBI for withholding the details about Bayoumi for so many years.
-“This information obviously should have been out to the family members and to the American public long before now,” said Frolich who lives in Brooklyn. “Certainly the FBI knew a whole lot more than what they said.
-Sharon Premoli, who moved to Vermont from her home in Jersey City after escaping from the 80th floor of the North Tower where she worked as a vice president for a financial marketing firm, said she has long suspected that the FBI knew much more than it was telling about the Saudi links to the 9/11 attacks.
-“Knowing what we already know,” she said, “how is it possible that we continue to nurture this relationship with Saudi Arabia?”
-As for the FBI and its decision to hold back for years what it knew about the spy and the prince and the terrorists, Premoli said: “We feel abandoned.”
-Mike Kelly is an award-winning columnist for NorthJersey.com. To get unlimited access to his insightful thoughts on how we live life in New Jersey, please subscribe or activate your digital account today.
-Email: kellym@northjersey.com
-Twitter: @mikekellycolumn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.bbc.com/news/60773595?xtor=AL-72-%5Bpartner%5D-%5Bbbc.news.twitter%5D-%5Bheadline%5D-%5Bnews%5D-%5Bbizdev%5D-%5Bisapi%5D&amp;at_medium=custom7&amp;at_custom4=ADB168E6-A581-11EC-B61D-AE9E4744363C&amp;at_custom1=%5Bpost+type%5D&amp;at_custom3=%40BBCWorld&amp;at_custom2=twitter&amp;at_campaign=64</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chinese plot to smear US Congress hopeful unveiled</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>99.85070824623108</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Matthew Olsen, an assistant attorney general for the Justice department said the case represented "a conspiracy to derail the congressional candidacy of an American citizen" and warned that it and the others unveiled today were examples of the "alarming rise in trans-national repression... authoritarian states around the world feel emboldened to reach beyond their borders to intimidate or exact reprisals against individuals who dare to speak out against oppression and corruption".</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NewsReport.xlsx
+++ b/NewsReport.xlsx
@@ -466,29 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/europe/russian-central-bank-decides-not-reopen-stock-market-trading-next-week-2022-03-12/</t>
+          <t>https://www.bbc.com/news/world-us-canada-60794809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Russian central bank decides not to reopen stock market trading next week</t>
+          <t>Ukraine: Arnold Schwarzenegger's anti-war video trends on Russian social media</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t xml:space="preserve">fake </t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99.83724355697632</v>
+        <v>2.017059922218323</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>March 12 (Reuters) - Russia's central bank on Saturday said it has decided not to reopen stock market trading on the Moscow Exchange from March 14-18, with the exception of some non-open-market transactions an transactions using the SPFI payment system.
-It said the foreign exchange market, money market and repo market would open at 0700 GMT on those days. The bank said it would announce the operating mode for the following week at a later date.
-Register now for FREE unlimited access to Reuters.com Register
-Reporting by Reuters; Editing by Kevin Liffey
-Our Standards: The Thomson Reuters Trust Principles.</t>
+          <t>"The strength and the heart of the Russian people have always inspired me," he says. "That is why I hope that you will let me tell you the truth about the war in Ukraine."</t>
         </is>
       </c>
     </row>
@@ -498,12 +494,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/world/2022/mar/17/kyiv-ukraine-says-moscow-russia-must-accept-ceasefire-as-west-doubts-putin-sincerity?CMP=Share_iOSApp_Other</t>
+          <t>https://www.theguardian.com/world/2022/mar/18/sergei-lavrov-praises-fox-news-coverage-ukraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vladimir Putin accused of war crimes as school and theatre are hit in Ukraine</t>
+          <t>Russian foreign minister praises Fox News coverage of war in Ukraine</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,41 +508,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88.9006495475769</v>
+        <v>99.98065829277039</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Russia has been accused by the UK, the US, France, Albania, Ireland and Norway of war crimes in Ukraine, as Paris claimed Vladimir Putin was only pretending to be interested in negotiating a peace deal.
-The six countries challenged Russia before a UN security council meeting as the British foreign secretary, Liz Truss, said there was now “very, very strong evidence” of war crimes being committed by Russian forces.
-“Vladimir Putin is behind them,” Truss said. “It is ultimately a matter for the international criminal court to decide who is or isn’t a war criminal and for us to bring the evidence.”
-The US secretary of state, Antony Blinken, said he agreed with Joe Biden that war crimes had been committed in Ukraine, adding that US experts were in the process of documenting and evaluating potential war crimes.
-The World Health Organization director-general, Tedros Adhanom Ghebreyesus, told the UN security council that they had verified 43 attacks on health care facilities in Ukraine that have killed 12 people and injured dozens more without specifying who was behind it. “In any conflict, attacks on health care are a violation of international humanitarian law,” he said.
-The UN’s undersecretary-general Rosemary DiCarlo called for an investigation into the reported attacks on civilians.
-She told the meeting that “international humanitarian law is crystal clear” and the attacks “are reportedly indiscriminate, resulting in civilian casualties and damage to civilian infrastructure.”
-Earlier, Blinken, who has repeatedly warned that Putin will turn to the use of chemical weapons, said the US administration was gathering evidence of war crimes and appeared to dismiss hopes of a resolution through diplomacy.
-He said: “The actions that we’re seeing Russia take every single day, virtually every minute of every day, are in total contrast to any serious diplomatic effort to end the war.”
-On Thursday night, British defence intelligence analysts said they believed Russia was being forced to divert “large numbers” of troops to defend its supply lines rather than continuing its attacks in Ukraine.
-The latest intelligence assessment published by the Ministry of Defence said logistical problems “continue to beset Russia’s faltering invasion”.
-Rescue workers continued to search through the rubble for survivors of a Russian airstrike on a theatre in the besieged Ukrainian city of Mariupol where hundreds of people had been sheltering.
-Officials said more than 20 people were killed and 25 injured in an airstrike on a school and community centre in Merefa, close to the north-eastern city of Kharkiv, in the early hours of Thursday morning.
-Oleksii Reznikov, Ukraine’s defence minister, described the pilot who bombed the theatre in Mariupol as a monster. The word “children” had been painted in large Russian script on the ground outside the red-roofed theatre building to warn off fighter jets.
-Speaking via video link to a committee of MEPs, Reznikov, who has been leading the Ukrainian delegation in peace talks with Russia, said the first step to any deal was an immediate ceasefire but he feared the Kremlin would first need to be defeated in battle.
-“We will of course first of all during the negotiations talk about a ceasefire, about humanitarian corridors, the provision of the civilian population with evacuation, with water, with food, and maybe later we can sign this agreement for peace,” he said.
-“But on the terms of Ukrainian people – we would never accept any capitulation and our armed forces are ready to resist. So today we could say the negotiations are more or less on a technical level. And of course lawyers are involved, politicians are involved, and I’m not going to go into more details about negotiations.”
-He added: “I have to assure you that there is nothing yet to be satisfied about. But I hope that we will end this war very soon and of course by defeating the Kremlin.”
-Reznikov told MEPs that international leaders such as Israel’s prime minister, Naftali Bennett, had been trying to mediate. However, there are major doubts within the Ukrainian negotiating team and in western capitals about whether Putin is prepared to choose peace.
-France’s foreign minister, Jean-Yves Le Drian, said he believed the Russian president was pretending to negotiate as part of a battle plan also used in Chechnya and Syria.
-“Unfortunately, we’re still facing the same Russian logic – making maximalist demands, wanting Ukraine to surrender and intensifying siege warfare,” Le Drian told Le Parisien newspaper. “Just as in Grozny [in Chechnya] and Aleppo [in Syria], there are three typical elements – indiscriminate bombardment, so-called humanitarian corridors designed to allow them to accuse the other side of failing to respect them, and talks with no objective other than pretending that they are negotiating.”
-Le Drian said there was only one way for Putin to show he was interested in peace and that was by engaging with “one urgent matter – ceasefire, ceasefire, ceasefire”.
-“Russia refuses that for now,” he said. “So the sanctions will be intensified in a determined way until Putin realises that the price for continuing the conflict will be so high that a ceasefire is preferable and starts real talks with President Zelenskiy.”
-The Kremlin on Thursday said Russia was putting “colossal” energy into talks but did not see such “zeal” from Kyiv.
-One western official said that while the Russian negotiators appeared to be serious about their task, Putin’s television appearance on Wednesday should be a cause for doubt. The Russian president spoke of a western plot to destroy Russia and described his domestic opponents as “traitors and scum”.
-“The question of whether Russia is prepared to compromise on its demands is a very big question,” the official said. “Those of you who saw President Putin addressing the nation yesterday would be forgiven for thinking that Russia was not in compromising mood.
-“And in the end a lot of this is going to come down to what Putin wants … Negotiations are serious and are worth pursuing. But as he says, where and whether they will end up somewhere useful I think is still very unknown.”
-Russia has been demanding that Ukraine become a “neutral state” and abandon its aspirations to join Nato. The Kremlin also wants Kyiv to accept the loss of Crimea, which Moscow illegally annexed in 2014, and the self-proclaimed republics in Donetsk and Luhansk.
-Slovenia’s prime minister, Janez Janša, who saw Volodymyr Zelenskiy in Kyiv on Tuesday evening, told the Guardian that the Ukrainian president was open to changing the constitution to satisfy Russia’s demand on Nato but that Ukraine wanted iron-clad guarantees from world powers that they would intervene in any future conflict provoked by the Kremlin.
-“If we want a real peace agreement, something which will last many generations, I don’t think that this is possible only to negotiate between Russia and Ukraine,” he said. “I think that at the same table, as guarantors, there should be United States, European Union and China.”
-The US president, Joe Biden, is to hold a call on Friday with the Chinese leader, Xi Jinping. There were seven hours of talks on Monday in Rome between the White House national security adviser, Jake Sullivan, and his Chinese counterpart, Yang Jiechi.</t>
+          <t>Russia’s foreign minister, Sergei Lavrov, has praised Fox News for its coverage, appearing on the Russian state-controlled RT network to hail the right-leaning US cable channel, whose primetime host Tucker Carlson has played down the invasion.
+“We know the manners and the tricks that are being used by the western countries to manipulate media, we understood long ago that there is no such thing as an independent western media,” said Lavrov, speaking in English in a studio interview on Friday.
+“If you take the United States, only Fox News is trying to present some alternative point of view,” he said.
+Sergey Lavrov(RUSSIAN foreign minister) praises Fox News for its Ukrainian coverage. pic.twitter.com/RHLJjhDyMb — Haggis_UK 🇬🇧 🇪🇺 (@Haggis_UK) March 18, 2022
+He also denounced the social media ban of former president Donald Trump and took exception to the description of January 6 rioters as terrorists.
+“But when you watch other channels, read the social networks and internet platforms, when the acting president was blocked and this censorship continues in a very big way … Whenever something is happening by the way of mass protest, mass demonstrations – which they don’t like – they immediately call it domestic terrorism.
+“So it’s a war, and it’s a war which involves the methods of information terrorism,” he said.
+Russian media regularly play clips of Carlson criticising the US and Ukraine, and he was still praising President Vladimir Putin hours before Russia invaded Ukraine almost four weeks ago.
+In contrast, as Moscow’s bombardment escalated, Russian apologism by numerous Fox hosts, commentators and guests was being corrected on air by the network’s own national security correspondent, Jennifer Griffin.
+The mental split-screen effect only sharpened earlier this week when a Fox news team on the ground in Ukraine came under Russian fire on the frontline.
+Cameraman Pierre Zakrzewski and producer Oleksandra Kuvshynova were both killed during a Russian attack outside the Ukrainian capital, Kyiv. Correspondent Benjamin Hall was badly wounded in the incident.
+Lavrov’s comments on Friday came as six western nations accused Moscow of using the UN security council to launder disinformation and spread propaganda, after Russian diplomats again raised allegations that the US was involved in biological weapons, which have been repeatedly denied by both Washington and Ukraine.
+Western diplomats slammed the claims, with Britain’s UN ambassador, Barbara Woodward, calling Russia’s tactics the “disinformation of the desperate”.</t>
         </is>
       </c>
     </row>
@@ -556,12 +534,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.wkyt.com/2022/02/16/tennessee-woman-accused-23-sex-crimes-involving-least-9-minors-high-school/</t>
+          <t>https://www.nbcnews.com/news/us-news/unarmed-black-man-grabbing-tea-car-shot-new-jersey-police-paralyzed-la-rcna20640</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tennessee woman accused of 23 sex crimes involving 9 students at a high school</t>
+          <t>Black man grabbing tea from car shot by New Jersey police and paralyzed, lawsuit says</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,22 +548,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.9656081199646</v>
+        <v>99.97872114181519</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ENGLEWOOD, Tenn. (WVLT/Gray News) - A Tennessee woman is facing numerous charges after authorities said she sexually assaulted nine high school students.
-Melissa Blair, 38, was indicted on 23 charges, including 18 counts of aggravated statutory rape, four counts of human trafficking by patronizing prostitution and one count of solicitation of a minor, McMinn County Sheriff Joe Guy announced on Tuesday.
-WVLT reports the Department of Children’s Services notified detectives in early December that Blair had sexual encounters with boys who were students at McMinn County Central High School.
-The sheriff’s office executed a search warrant at Blair’s home on Dec. 15. She was then banned from the school property and activities.
-“The search warrant revealed additional evidence, and our investigation grew larger as more parents and victims contacted us,” Guy said.
-Guy said there were nine confirmed victims, and all of them were juveniles at the time. Two are now adults, officials said. The alleged crimes occurred from early in 2020 to late 2021.
-“We suspect there may be additional juvenile victims, and we encourage them or their parents to contact us,” Guy said.
-Blair is accused of setting up meetings with the victims through social media and offering items in return for sexual favors.
-Melissa Blair was indicted on 23 counts, 18 of which are counts of aggravated statutory rape. (McMinn County Sheriff's Office)
-She was released Tuesday evening on a $100,000 bond.
-Director of McMinn County Schools Lee Parkison said that Blair was involved in booster clubs with the school. She had a student enrolled at the school that later transferred.
-Copyright 2022 Gray Media Group, Inc. All rights reserved.</t>
+          <t>A Black man in New Jersey grabbing iced tea from a car was shot and paralyzed by plain-clothed officers last month, according to a lawsuit alleging excessive force, negligence and racial profiling.
+Jajuan R. Henderson, 29, was getting the drink from a Saturn Ion parked outside of his home shortly after midnight on Feb. 12 in Trenton, per the civil suit filed Wednesday in Mercer County.
+Jajuan Henderson, 29, in a family photo. NBC Philadelphia
+That’s when a group of men in dark clothing and masks driving an unidentified vehicle boxed in the Saturn, which was parallel parked, according to the lawsuit. Henderson did not know who the men were.
+Once out of their vehicle, the men began yelling and Henderson then attempted to use his phone to call for help, the suit said.
+One of the men smashed the driver’s side window and Henderson was shot four times, the lawsuit said.
+“This group of men, appearing as any other group of dangerous criminals from a horror movie, turned out to be from the Trenton Police Department,” the lawsuit said.
+“A Black man sitting in a car at midnight while on a cell phone was all the unidentified police needed to smash the driver’s side window. Despite being unarmed, nonthreatening, and minding his own business, the police proceeded to use lethal force and shoot Jajuan in the neck. It is a miracle Jajuan survived.”
+Henderson is now paralyzed from the chest down, the suit said.
+Named as defendants are the city of Trenton, the director of Trenton police, Steve E. Wilson, and four officers only identified by their initials who were on scene.
+Wilson did not immediately respond to requests for comment Friday. A city spokesperson declined comment on the lawsuit, citing the “pending litigation.”
+Derek Demeri, an attorney representing Henderson, told NBC News on Friday there are many unknowns in the case, such as the plain-clothed officers’ objective that night.
+According to the suit, there is body camera footage that has not been released to the public. The identities of the responding officers have also been withheld, the suit said.
+A 2018 attorney general directive says video footage should be released publicly, when requested, once the initial use-of-force is substantially complete — usually within 20 days, NJ.com reported.
+“It’s very frustrating. The family has a right to transparency in this process,” Demeri said.
+A Trenton spokesperson, Tim Carroll — speaking on behalf of the city and police department — declined to comment beyond saying an investigation was ongoing.
+“The City of Trenton has fully complied with the required Attorney General’s review of the February 12 incident, and await the findings,” Carroll said.
+The state Attorney General’s Office has deferred a separate probe into the officers’ actions to the Union County Prosecutor’s Office because of a conflict of interest, the Mercer County prosecutor’s spokesperson said.
+Demeri said in addition to being paralyzed, Henderson was charged with aggravated assault, resisting arrest and obstruction of justice. The aggravated assault charges, four counts, were eventually dropped by the Mercer County Prosecutor’s Office, Demeri said.
+A spokesperson with the prosecutor’s office said Friday the office is still prosecuting Henderson for resisting arrest and obstruction. The spokesperson did not elaborate on why the aggravated assault charges were dismissed.
+An affidavit filed against Henderson provided by Mercer prosecutors details the police perspective on what preceded the shooting.
+The affidavit said that Trenton police’s street crime units, 511 and 513, attempted to conduct a motor vehicle stop on the Saturn the night of the incident.
+Henderson, the affidavit said, refused to cooperate with detectives’ orders to roll down the window and then exit the vehicle. He also could not provide a driver’s license or proof of the Saturn’s registration and insurance, the affidavit said.
+Henderson’s lawsuit said the car belonged to the mother of his child.
+Henderson also refused orders to stop reaching under the backseat, which prompted an officer to break the driver’s window, the affidavit said. Henderson then, according to the affidavit, turned on the ignition and attempted to flee, striking two parked cars while officers were in close proximity.
+Henderson’s lawsuit said it’s unclear if he turned on the ignition, but fleeing was impossible, given the car was boxed in between vehicles on three sides with a fourth side blocked by a utility pole on the car’s passenger side.
+No officers were injured. The four officers were placed on administrative leave, according to a county prosecutor’s statement from last month.
+Demeri said Henderson is a fighter who is working through rehabilitation and trying to gain mobility. But he has a long road ahead.
+Given the circumstances, Demeri said his client acted like most people would.
+“Anyone in that situation would be very frightened for their life.”</t>
         </is>
       </c>
     </row>

--- a/NewsReport.xlsx
+++ b/NewsReport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.bbc.com/news/world-us-canada-60794809</t>
+          <t>https://www.reuters.com/world/europe/russian-navy-commander-killed-ukraine-2022-03-20/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ukraine: Arnold Schwarzenegger's anti-war video trends on Russian social media</t>
+          <t>Russian navy commander killed in Ukraine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">fake </t>
+          <t>Real</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.017059922218323</v>
+        <v>98.90352487564087</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>"The strength and the heart of the Russian people have always inspired me," he says. "That is why I hope that you will let me tell you the truth about the war in Ukraine."</t>
+          <t>LONDON, March 20 (Reuters) - A senior naval commander in Russia's Black Sea Fleet has been killed in Ukraine, the governor of Sevastopol said on Sunday.
+Post-Captain Andrei Paliy, deputy commander of the fleet, died during fighting in the eastern Ukrainian port city of Mariupol, Governor Mikhail Razvozhayev said on the messaging app Telegram.
+The Russian navy did not respond to a request for comment.
+Sevastopol, which is a major base of Russia's Black Sea Fleet, is located on the Crimean peninsula, which Moscow annexed from Ukraine in 2014.
+Register now for FREE unlimited access to Reuters.com Register
+Reporting by Guy Faulconbridge; Editing by Gareth Jones
+Our Standards: The Thomson Reuters Trust Principles.</t>
         </is>
       </c>
     </row>
@@ -494,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.theguardian.com/world/2022/mar/18/sergei-lavrov-praises-fox-news-coverage-ukraine</t>
+          <t>https://www.reuters.com/world/us/us-existing-home-sales-plunge-february-nar-2022-03-18/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Russian foreign minister praises Fox News coverage of war in Ukraine</t>
+          <t>U.S. home sales tumble; higher prices, mortgage rates eroding affordability</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,23 +514,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.98065829277039</v>
+        <v>98.93137216567993</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Russia’s foreign minister, Sergei Lavrov, has praised Fox News for its coverage, appearing on the Russian state-controlled RT network to hail the right-leaning US cable channel, whose primetime host Tucker Carlson has played down the invasion.
-“We know the manners and the tricks that are being used by the western countries to manipulate media, we understood long ago that there is no such thing as an independent western media,” said Lavrov, speaking in English in a studio interview on Friday.
-“If you take the United States, only Fox News is trying to present some alternative point of view,” he said.
-Sergey Lavrov(RUSSIAN foreign minister) praises Fox News for its Ukrainian coverage. pic.twitter.com/RHLJjhDyMb — Haggis_UK 🇬🇧 🇪🇺 (@Haggis_UK) March 18, 2022
-He also denounced the social media ban of former president Donald Trump and took exception to the description of January 6 rioters as terrorists.
-“But when you watch other channels, read the social networks and internet platforms, when the acting president was blocked and this censorship continues in a very big way … Whenever something is happening by the way of mass protest, mass demonstrations – which they don’t like – they immediately call it domestic terrorism.
-“So it’s a war, and it’s a war which involves the methods of information terrorism,” he said.
-Russian media regularly play clips of Carlson criticising the US and Ukraine, and he was still praising President Vladimir Putin hours before Russia invaded Ukraine almost four weeks ago.
-In contrast, as Moscow’s bombardment escalated, Russian apologism by numerous Fox hosts, commentators and guests was being corrected on air by the network’s own national security correspondent, Jennifer Griffin.
-The mental split-screen effect only sharpened earlier this week when a Fox news team on the ground in Ukraine came under Russian fire on the frontline.
-Cameraman Pierre Zakrzewski and producer Oleksandra Kuvshynova were both killed during a Russian attack outside the Ukrainian capital, Kyiv. Correspondent Benjamin Hall was badly wounded in the incident.
-Lavrov’s comments on Friday came as six western nations accused Moscow of using the UN security council to launder disinformation and spread propaganda, after Russian diplomats again raised allegations that the US was involved in biological weapons, which have been repeatedly denied by both Washington and Ukraine.
-Western diplomats slammed the claims, with Britain’s UN ambassador, Barbara Woodward, calling Russia’s tactics the “disinformation of the desperate”.</t>
+          <t>A new home is seen under construction while building material supplies are in high demand in Tampa, Florida, U.S., May 5, 2021. REUTERS/Octavio Jones
+Summary Existing home sales fall 7.2% in February
+Median house price rises 15% to $357,300 from year ago
+Housing inventory drops 15.5% to 870,000 from year ago
+WASHINGTON, March 18 (Reuters) - U.S. home sales fell by the most in a year in February as a perennial shortage of houses and double-digit price growth continued to squeeze first-time buyers out of the market.
+With mortgage rates rising above 4% for the first time in nearly three years, sales are likely to slow this year, though that would do little to curb house price inflation. Contracts to buy previously owned houses, a leading indicator of home sales, fell for three straight months through January.
+"It will take a sharper drop in sales to bring the market back into balance and allow prices to increase at a more modest pace," said David Berson, chief economist at Nationwide in Columbus, Ohio.
+Register now for FREE unlimited access to Reuters.com Register
+Existing home sales dropped 7.2% to a seasonally adjusted annual rate of 6.02 million units last month, the largest decrease since February 2021, the National Association of Realtors said on Friday.
+Though the decline reversed January's jump, sales remained above their pre-pandemic level. Economists polled by Reuters had forecast sales would decrease to a rate of 6.10 million units.
+Sales fell in all four U.S. regions. Home resales account for the bulk of U.S. home sales. They dropped 2.4% on a year-on-year basis in February.
+Existing home sales
+Mortgage rates surged in February, with the 30-year fixed rate approaching a three-year high, according to data from mortgage finance agency Freddie Mac. It averaged 4.16% in the week ending March 17, breaking above 4.0% for the first time since May 2019.
+Still low by historical standards, mortgage rates are set to increase further after the Federal Reserve on Wednesday raised its policy interest rate by 25 basis points, the first hike in more than three years, and laid out an aggressive plan to push borrowing costs to restrictive levels by 2023. read more
+"Home buyers have likely missed their opportunity to lock in ultra-low mortgage rates," said Mark Vitner, a senior economist at Wells Fargo in Charlotte, North Carolina.
+But Vitner also noted that the 30-year conventional mortgage has been higher than its current level for more than 90% of the time over the past 30 years, which he said was "an important reminder that home sales should remain fairly strong even if mortgage rates rise a bit further."
+A separate report from the Conference Board on Friday showed a gauge of future U.S. economic activity rebounded in February, suggesting the expansion would persist despite tighter monetary policy and uncertainty caused by Russia's invasion of Ukraine.
+Stocks on Wall Street were higher. The dollar rose against a basket of currencies. U.S. Treasury yields were largely lower.
+Leading indicators
+TIGHT SUPPLY
+Higher mortgage rates and rising homes prices amid a prolonged housing shortage will reduce affordability, especially for first-time buyers. The median existing house price increased 15% from a year earlier to $357,300 in February. House prices have increased on a year-on-year basis for a record 120 straight months.
+Bank of America Securities expects strong house price growth will continue this year and into 2023 because of tight supply.
+Sales remained concentrated in the upper-price end of the market. Sales in the much sought after $100,000-$250,000 price range plunged 26.1% from a year ago.
+According to the NAR, the typical monthly mortgage payment has surged 28% from a year ago, a huge burden for first-time buyers, who accounted for only 29% of sales last month. Economists and realtors say a 40% share of first-time buyers is needed for a robust housing market.
+"Home prices inflating with higher interest rates together is a toxic brew that forces us to downgrade our forecast for housing sales later this year," said Christopher Rupkey, chief economist at FWDBONDS in New York. "More bad news is coming your way if you are actively trying to buy a new home."
+There were 870,000 previously owned homes on the market in February, down 15.5% from a year ago. Supply is likely to remain tight as builders struggle with shortages and high prices for key materials like lumber, which is used for framing.
+Data from the Commerce Department on Thursday showed the backlog of homes yet to be build reached a fresh record high in February. A National Association of Home Builders survey this week showed homebuilder confidence dropped to a six-month low in March due to supply constraints and inflation. read more
+At February's sales pace, it would take 1.7 months to exhaust the current inventory, down from 2.0 months a year ago. A six-to-seven-month supply is viewed as a healthy balance between supply and demand.
+All-cash sales accounted for 25% of transactions last month, up from 22% a year ago. Individual investors or second-home buyers made up 19% of sales last month, up from 17% in February 2021. With supply tight, houses typically stayed on the market for 18 days last month, down from 20 days in February 2021.
+Eighty-four percent of homes sold in February were on the market for less than a month.
+Register now for FREE unlimited access to Reuters.com Register
+Reporting by Lucia Mutikani; Editing by Dan Burns and Paul Simao
+Our Standards: The Thomson Reuters Trust Principles.</t>
         </is>
       </c>
     </row>
@@ -534,12 +560,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.nbcnews.com/news/us-news/unarmed-black-man-grabbing-tea-car-shot-new-jersey-police-paralyzed-la-rcna20640</t>
+          <t>https://www.nbcnews.com/news/us-news/many-10-injured-shooting-arkansas-car-show-state-police-say-rcna20761</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Black man grabbing tea from car shot by New Jersey police and paralyzed, lawsuit says</t>
+          <t>Twenty People Shot at Arkansas Car Show</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,40 +574,70 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.97872114181519</v>
+        <v>99.99960660934448</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A Black man in New Jersey grabbing iced tea from a car was shot and paralyzed by plain-clothed officers last month, according to a lawsuit alleging excessive force, negligence and racial profiling.
-Jajuan R. Henderson, 29, was getting the drink from a Saturn Ion parked outside of his home shortly after midnight on Feb. 12 in Trenton, per the civil suit filed Wednesday in Mercer County.
-Jajuan Henderson, 29, in a family photo. NBC Philadelphia
-That’s when a group of men in dark clothing and masks driving an unidentified vehicle boxed in the Saturn, which was parallel parked, according to the lawsuit. Henderson did not know who the men were.
-Once out of their vehicle, the men began yelling and Henderson then attempted to use his phone to call for help, the suit said.
-One of the men smashed the driver’s side window and Henderson was shot four times, the lawsuit said.
-“This group of men, appearing as any other group of dangerous criminals from a horror movie, turned out to be from the Trenton Police Department,” the lawsuit said.
-“A Black man sitting in a car at midnight while on a cell phone was all the unidentified police needed to smash the driver’s side window. Despite being unarmed, nonthreatening, and minding his own business, the police proceeded to use lethal force and shoot Jajuan in the neck. It is a miracle Jajuan survived.”
-Henderson is now paralyzed from the chest down, the suit said.
-Named as defendants are the city of Trenton, the director of Trenton police, Steve E. Wilson, and four officers only identified by their initials who were on scene.
-Wilson did not immediately respond to requests for comment Friday. A city spokesperson declined comment on the lawsuit, citing the “pending litigation.”
-Derek Demeri, an attorney representing Henderson, told NBC News on Friday there are many unknowns in the case, such as the plain-clothed officers’ objective that night.
-According to the suit, there is body camera footage that has not been released to the public. The identities of the responding officers have also been withheld, the suit said.
-A 2018 attorney general directive says video footage should be released publicly, when requested, once the initial use-of-force is substantially complete — usually within 20 days, NJ.com reported.
-“It’s very frustrating. The family has a right to transparency in this process,” Demeri said.
-A Trenton spokesperson, Tim Carroll — speaking on behalf of the city and police department — declined to comment beyond saying an investigation was ongoing.
-“The City of Trenton has fully complied with the required Attorney General’s review of the February 12 incident, and await the findings,” Carroll said.
-The state Attorney General’s Office has deferred a separate probe into the officers’ actions to the Union County Prosecutor’s Office because of a conflict of interest, the Mercer County prosecutor’s spokesperson said.
-Demeri said in addition to being paralyzed, Henderson was charged with aggravated assault, resisting arrest and obstruction of justice. The aggravated assault charges, four counts, were eventually dropped by the Mercer County Prosecutor’s Office, Demeri said.
-A spokesperson with the prosecutor’s office said Friday the office is still prosecuting Henderson for resisting arrest and obstruction. The spokesperson did not elaborate on why the aggravated assault charges were dismissed.
-An affidavit filed against Henderson provided by Mercer prosecutors details the police perspective on what preceded the shooting.
-The affidavit said that Trenton police’s street crime units, 511 and 513, attempted to conduct a motor vehicle stop on the Saturn the night of the incident.
-Henderson, the affidavit said, refused to cooperate with detectives’ orders to roll down the window and then exit the vehicle. He also could not provide a driver’s license or proof of the Saturn’s registration and insurance, the affidavit said.
-Henderson’s lawsuit said the car belonged to the mother of his child.
-Henderson also refused orders to stop reaching under the backseat, which prompted an officer to break the driver’s window, the affidavit said. Henderson then, according to the affidavit, turned on the ignition and attempted to flee, striking two parked cars while officers were in close proximity.
-Henderson’s lawsuit said it’s unclear if he turned on the ignition, but fleeing was impossible, given the car was boxed in between vehicles on three sides with a fourth side blocked by a utility pole on the car’s passenger side.
-No officers were injured. The four officers were placed on administrative leave, according to a county prosecutor’s statement from last month.
-Demeri said Henderson is a fighter who is working through rehabilitation and trying to gain mobility. But he has a long road ahead.
-Given the circumstances, Demeri said his client acted like most people would.
-“Anyone in that situation would be very frightened for their life.”</t>
+          <t>A man was killed and at least 27 other people were injured in a "gunfight" at a car show in Dumas, Arkansas, on Saturday night, authorities said.
+The victims were described as bystanders in a shootout between two suspects, Col. William J. Bryant of Arkansas State Police said at a press conference Sunday.
+"The bottom line on this is just two individuals got into a gunfight," he said. "Unfortunately we had multi [cq] victims of the shooting incident."
+One person was arrested, but authorities were unclear on any possible connection to the violence.
+"It's an unrelated arrest," Bryant said. " ... We're still looking for two people."
+At least six children — the youngest is 19 months old — were among those wounded, he said. They were taken to Arkansas Children’s Hospital in Little Rock, according to a spokeswoman.
+At least five had been released as of Sunday afternoon, the colonel said.
+The deceased was identified by authorities as Cameron Schaffer, 23, of Jacksonville, Arkansas. Bryant said there was no indication the victim was one of the shooters.
+Gov. Asa Hutchinson said he will monitor the investigation as it unfolds.
+“As the investigation continues I will examine details to see if there are any steps that could have been taken to prevent this type of tragedy,” Hutchinson said.
+Troopers, highway patrol officers and investigators were dispatched about 6:50 p.m. to a parking lot where the event, billed by promoters as a car and bicycle show, was taking place, Bryant said.
+Though organizers have promoted a broader weekend of spring break-style festivities for years, the colonel said their online marketing shows that bystanders and shooters all appeared to be there for the car show.
+"If you look at the website for Hoodnic, the community organization — they do things like buy backpacks, different things — but it was a car show they were hosting," he said.
+The last time the wider event that hosts the car show was held, in 2019, it was billed as a two-day spring break festival, according to the city of Dumas.
+This year promoters did not describe the two-day happening as a spring break celebration, though the listed attractions included club music, a parade, gospel performances, live bands, and a display of cars and bicycles. According to organizers' schedule, the car show portion of the weekend should have been over by the time shooting broke out.
+Virtual fliers have advertised the wider event as the “NeighborHOOD PicNIC" and "Hoodnic Weekend."
+Video from the grounds of the event verified by NBC News shows a set-up similar to a music festival, with a stage, food concessions, tarp-covered booths, and dirt-covered pedestrian paths.
+State police have not mentioned the larger festival.
+"There is no doubt on the part of local authorities or the state police a car show occurred," state police spokesman Bill Sadler emailed.
+The event's organizers, a nonprofit group called the Hoodnic Foundation, said it was “heartbroken and in shock at what took place during tonight’s car show,” in statement posted to its Facebook page.
+Organizers have also described themselves as working under the name Delta N.E.Y.O.
+The group's director, Wallace McGehee, told NBC affiliate KARK of Little Rock that he witnessed the shooting break out and tried to get children out of harm's way.
+“Getting down, trying to get kids out the way, that was the main issue for all of us,” he said.
+McGehee said the group encourages nonviolence. The Hoodnic Foundation is listed on transparency websites as an educational nonprofit.
+This was the 16th year for the larger event in Dumas, McGehee said. The other years, he said, were problem-free.
+“Send ya’ll prayers, send y’all condolences,” McGehee said.
+Chris Jones, a Democrat running for Arkansas governor, tweeted that he had been at the event earlier Saturday, registering voters and enjoying “a positive family atmosphere.”
+“I am deeply saddened (and honestly angered) by this tragedy,” Jones said in a statement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2022/03/20/us/south-carolina-lake-shooting-self-defense/index.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A man was fatally shot by his rescuer after falling in a South Carolina lake. The shooting has been ruled self-defense</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80.6626558303833</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(CNN) South Carolina prosecutors decided not to file charges in a case where a man who fell off a recreational watercraft was fatally shot by his rescuer, according to the Oconee County Sheriff's Office.
+The incident occurred Tuesday afternoon, when a man and woman -- neither wearing life jackets -- fell off a Jet Ski into Lake Keowee, the sheriff's office said in an earlier news release , citing the information and evidence gathered in the investigation.
+A couple on a nearby pontoon boat saw the man and woman "in distress in the water" and brought them on board, the sheriff's office said, as the Jet Ski continued doing circles in the lake.
+"The man, who had been rescued, became agitated and began assaulting the couple on the pontoon," the statement said. "Investigators have been told that the man may have wanted to get back to the Jet Ski."
+Read More</t>
         </is>
       </c>
     </row>
